--- a/biology/Botanique/Grewia/Grewia.xlsx
+++ b/biology/Botanique/Grewia/Grewia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Grewia comprend environ 600 espèces et sous-espèces d'arbres et d'arbustes principalement tropicaux, surtout d'Asie et d'Europe, quelques-unes provenant d'Afrique.
 Le genre faisait partie de la famille des Tiliacées, famille depuis incorporée à celle des Malvacées par la classification APG.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre est composé d'arbres – de petite taille - ou d'arbustes à feuillage caduc.
 Les feuilles sont alternes au pétiole court.
@@ -549,7 +563,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre sont originaires des régions tropicales d'Europe, d'Asie, d'Australie et d'Afrique.
 </t>
@@ -580,7 +596,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'abord de plantes ornementales.
 Quelques espèces produisent des fruits comestibles (les drupes), en particulier Grewia subinaequalis DC (le fruit est appelé « Phalsa »).
@@ -614,7 +632,9 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Grewia abutifolia Vent. ex Juss. - (synonymes : Grewia sclerophylla Roxb. ex G. Don, Sterculia tiliacea Leveille)
